--- a/ope.ed.gov/2010/disciplinary-actions-on-campus-virginia-colleges-and-universities-crime-2010.xlsx
+++ b/ope.ed.gov/2010/disciplinary-actions-on-campus-virginia-colleges-and-universities-crime-2010.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Disciplinary_Actions_On_campus" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="disciplinary-actions-on-campus-" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Disciplinary Actions - On campus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>ACT College</t>
@@ -1615,34 +1612,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2010.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>401.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1653,13 +1674,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
         <v>401.0</v>
@@ -1682,13 +1703,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
         <v>401.0</v>
@@ -1708,19 +1729,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>401.0</v>
+        <v>1040.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1740,13 +1761,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
         <v>1040.0</v>
@@ -1766,19 +1787,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
-        <v>1040.0</v>
+        <v>2976.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -1798,13 +1819,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
         <v>2976.0</v>
@@ -1827,13 +1848,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
         <v>2976.0</v>
@@ -1856,13 +1877,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
         <v>2976.0</v>
@@ -1885,13 +1906,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
         <v>2976.0</v>
@@ -1914,13 +1935,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
         <v>2976.0</v>
@@ -1943,13 +1964,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
         <v>2976.0</v>
@@ -1972,13 +1993,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
         <v>2976.0</v>
@@ -2001,13 +2022,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
         <v>2976.0</v>
@@ -2027,19 +2048,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B16">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>2976.0</v>
+        <v>313.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -2056,19 +2077,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B17">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>313.0</v>
+        <v>1277.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -2085,28 +2106,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B18">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>1277.0</v>
+        <v>945.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
       </c>
       <c s="1" r="H18">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I18">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="19">
@@ -2114,28 +2135,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>945.0</v>
+        <v>1816.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
       </c>
       <c s="1" r="H19">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I19">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -2146,13 +2167,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
         <v>1816.0</v>
@@ -2175,13 +2196,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
         <v>1816.0</v>
@@ -2204,13 +2225,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
         <v>1816.0</v>
@@ -2230,19 +2251,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B23">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>1816.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2259,19 +2280,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B24">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>22.0</v>
+        <v>320.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -2288,19 +2309,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B25">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>320.0</v>
+        <v>189.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2317,19 +2338,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B26">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>189.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2346,19 +2367,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B27">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>101.0</v>
+        <v>94.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2375,19 +2396,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>94.0</v>
+        <v>4983.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2404,19 +2425,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B29">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>4983.0</v>
+        <v>696.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2436,13 +2457,13 @@
         <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
         <v>696.0</v>
@@ -2465,13 +2486,13 @@
         <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
         <v>696.0</v>
@@ -2491,19 +2512,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>696.0</v>
+        <v>258.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2520,19 +2541,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233356.0</v>
+        <v>233480.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>258.0</v>
+        <v>32.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2549,28 +2570,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233480.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>32.0</v>
+        <v>1688.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
       </c>
       <c s="1" r="H34">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I34">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="35">
@@ -2578,28 +2599,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B35">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>1688.0</v>
+        <v>921.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
       </c>
       <c s="1" r="H35">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I35">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -2607,19 +2628,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B36">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>921.0</v>
+        <v>835.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2636,19 +2657,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B37">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>835.0</v>
+        <v>191.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2665,19 +2686,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B38">
-        <v>441858.0</v>
+        <v>430306.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
-        <v>191.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2694,22 +2715,22 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B39">
-        <v>430306.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
-        <v>84.0</v>
+        <v>51.0</v>
       </c>
       <c s="1" r="G39">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H39">
         <v>0.0</v>
@@ -2723,22 +2744,22 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B40">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
-        <v>51.0</v>
+        <v>5466.0</v>
       </c>
       <c s="1" r="G40">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H40">
         <v>0.0</v>
@@ -2755,13 +2776,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
         <v>5466.0</v>
@@ -2784,13 +2805,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
         <v>5466.0</v>
@@ -2813,13 +2834,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
         <v>5466.0</v>
@@ -2842,13 +2863,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
         <v>5466.0</v>
@@ -2868,19 +2889,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B45">
-        <v>231697.0</v>
+        <v>451592.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>5466.0</v>
+        <v>17.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2897,19 +2918,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B46">
-        <v>451592.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>17.0</v>
+        <v>195.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -2926,19 +2947,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B47">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>195.0</v>
+        <v>229.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2955,19 +2976,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>229.0</v>
+        <v>174.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -2984,19 +3005,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B49">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
-        <v>174.0</v>
+        <v>181.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -3013,19 +3034,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B50">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>181.0</v>
+        <v>102.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -3042,19 +3063,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B51">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>102.0</v>
+        <v>1046.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -3071,19 +3092,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>1046.0</v>
+        <v>227.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -3100,28 +3121,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B53">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>227.0</v>
+        <v>4916.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
       </c>
       <c s="1" r="H53">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c s="1" r="I53">
-        <v>0.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="54">
@@ -3129,28 +3150,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B54">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
-        <v>4916.0</v>
+        <v>8000.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
       </c>
       <c s="1" r="H54">
-        <v>38.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I54">
-        <v>201.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="55">
@@ -3161,13 +3182,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
         <v>8000.0</v>
@@ -3176,10 +3197,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H55">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I55">
-        <v>198.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -3190,13 +3211,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
         <v>8000.0</v>
@@ -3219,13 +3240,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
         <v>8000.0</v>
@@ -3245,19 +3266,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B58">
-        <v>231624.0</v>
+        <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
-        <v>8000.0</v>
+        <v>310.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -3274,19 +3295,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B59">
-        <v>455983.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F59">
-        <v>310.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -3303,19 +3324,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B60">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
-        <v>10.0</v>
+        <v>1521.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -3332,19 +3353,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B61">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
-        <v>1521.0</v>
+        <v>4534.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -3361,19 +3382,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B62">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
-        <v>4534.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -3390,19 +3411,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B63">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
-        <v>101.0</v>
+        <v>1868.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -3422,13 +3443,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
         <v>1868.0</v>
@@ -3451,13 +3472,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
         <v>1868.0</v>
@@ -3477,19 +3498,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B66">
-        <v>440536.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
-        <v>1868.0</v>
+        <v>27.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -3506,28 +3527,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B67">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
-        <v>27.0</v>
+        <v>1537.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
       </c>
       <c s="1" r="H67">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I67">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="68">
@@ -3535,28 +3556,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B68">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
-        <v>1537.0</v>
+        <v>1052.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
       </c>
       <c s="1" r="H68">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I68">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -3564,19 +3585,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B69">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F69">
-        <v>1052.0</v>
+        <v>790.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -3593,19 +3614,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B70">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F70">
-        <v>790.0</v>
+        <v>12764.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -3625,13 +3646,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F71">
         <v>12764.0</v>
@@ -3654,13 +3675,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F72">
         <v>12764.0</v>
@@ -3683,13 +3704,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D73">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F73">
         <v>12764.0</v>
@@ -3712,13 +3733,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D74">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F74">
         <v>12764.0</v>
@@ -3741,13 +3762,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D75">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F75">
         <v>12764.0</v>
@@ -3770,13 +3791,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D76">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F76">
         <v>12764.0</v>
@@ -3799,13 +3820,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D77">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F77">
         <v>12764.0</v>
@@ -3828,13 +3849,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D78">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F78">
         <v>12764.0</v>
@@ -3857,13 +3878,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D79">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F79">
         <v>12764.0</v>
@@ -3886,13 +3907,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D80">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F80">
         <v>12764.0</v>
@@ -3915,13 +3936,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D81">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F81">
         <v>12764.0</v>
@@ -3944,13 +3965,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D82">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F82">
         <v>12764.0</v>
@@ -3973,13 +3994,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D83">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F83">
         <v>12764.0</v>
@@ -4002,13 +4023,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D84">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F84">
         <v>12764.0</v>
@@ -4028,19 +4049,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B85">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D85">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F85">
-        <v>12764.0</v>
+        <v>759.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -4057,28 +4078,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B86">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D86">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F86">
-        <v>759.0</v>
+        <v>980.0</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
       </c>
       <c s="1" r="H86">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="I86">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="87">
@@ -4086,28 +4107,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B87">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D87">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F87">
-        <v>980.0</v>
+        <v>125.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
       </c>
       <c s="1" r="H87">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I87">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -4115,19 +4136,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B88">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F88">
-        <v>125.0</v>
+        <v>148.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -4144,19 +4165,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B89">
-        <v>450599.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F89">
-        <v>148.0</v>
+        <v>757.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -4173,19 +4194,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B90">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F90">
-        <v>757.0</v>
+        <v>916.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -4202,19 +4223,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B91">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F91">
-        <v>916.0</v>
+        <v>475.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -4231,19 +4252,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B92">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F92">
-        <v>475.0</v>
+        <v>578.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -4260,28 +4281,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B93">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F93">
-        <v>578.0</v>
+        <v>1484.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
       </c>
       <c s="1" r="H93">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c s="1" r="I93">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="94">
@@ -4289,28 +4310,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B94">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F94">
-        <v>1484.0</v>
+        <v>465.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
       </c>
       <c s="1" r="H94">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I94">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -4318,19 +4339,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B95">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F95">
-        <v>465.0</v>
+        <v>447.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -4347,28 +4368,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B96">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F96">
-        <v>447.0</v>
+        <v>32562.0</v>
       </c>
       <c s="1" r="G96">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H96">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c s="1" r="I96">
-        <v>0.0</v>
+        <v>259.0</v>
       </c>
     </row>
     <row r="97">
@@ -4376,28 +4397,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B97">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F97">
-        <v>32562.0</v>
+        <v>7582.0</v>
       </c>
       <c s="1" r="G97">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H97">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I97">
-        <v>259.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -4408,13 +4429,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D98">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F98">
         <v>7582.0</v>
@@ -4437,13 +4458,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D99">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F99">
         <v>7582.0</v>
@@ -4463,19 +4484,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B100">
-        <v>232195.0</v>
+        <v>455390.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D100">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F100">
-        <v>7582.0</v>
+        <v>276.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -4492,19 +4513,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B101">
-        <v>455390.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F101">
-        <v>276.0</v>
+        <v>263.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -4521,28 +4542,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B102">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F102">
-        <v>263.0</v>
+        <v>1058.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
       </c>
       <c s="1" r="H102">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c s="1" r="I102">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="103">
@@ -4550,28 +4571,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B103">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D103">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F103">
-        <v>1058.0</v>
+        <v>5254.0</v>
       </c>
       <c s="1" r="G103">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H103">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I103">
-        <v>64.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="104">
@@ -4582,25 +4603,25 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D104">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F104">
         <v>5254.0</v>
       </c>
       <c s="1" r="G104">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H104">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I104">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -4608,19 +4629,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B105">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D105">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F105">
-        <v>5254.0</v>
+        <v>85.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
@@ -4637,19 +4658,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B106">
-        <v>431266.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D106">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F106">
-        <v>85.0</v>
+        <v>343.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -4666,28 +4687,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B107">
-        <v>377421.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D107">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F107">
-        <v>343.0</v>
+        <v>1024.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
       </c>
       <c s="1" r="H107">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="I107">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="108">
@@ -4695,28 +4716,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B108">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F108">
-        <v>1024.0</v>
+        <v>73.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
       </c>
       <c s="1" r="H108">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I108">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
@@ -4724,19 +4745,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B109">
-        <v>445869.0</v>
+        <v>458122.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D109">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F109">
-        <v>73.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -4753,19 +4774,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B110">
-        <v>458122.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F110">
-        <v>23.0</v>
+        <v>715.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -4782,19 +4803,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B111">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F111">
-        <v>715.0</v>
+        <v>1235.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
@@ -4811,19 +4832,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B112">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D112">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F112">
-        <v>1235.0</v>
+        <v>866.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -4840,19 +4861,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B113">
-        <v>437051.0</v>
+        <v>459602.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F113">
-        <v>866.0</v>
+        <v>175.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -4869,19 +4890,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B114">
-        <v>459602.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D114">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F114">
-        <v>175.0</v>
+        <v>976.0</v>
       </c>
       <c s="1" r="G114">
         <v>0.0</v>
@@ -4898,25 +4919,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B115">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D115">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F115">
-        <v>976.0</v>
+        <v>12629.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
       </c>
       <c s="1" r="H115">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I115">
         <v>0.0</v>
@@ -4930,13 +4951,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D116">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F116">
         <v>12629.0</v>
@@ -4945,7 +4966,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H116">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I116">
         <v>0.0</v>
@@ -4959,13 +4980,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D117">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F117">
         <v>12629.0</v>
@@ -4974,7 +4995,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H117">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I117">
         <v>0.0</v>
@@ -4985,28 +5006,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B118">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D118">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F118">
-        <v>12629.0</v>
+        <v>19434.0</v>
       </c>
       <c s="1" r="G118">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="H118">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c s="1" r="I118">
-        <v>0.0</v>
+        <v>573.0</v>
       </c>
     </row>
     <row r="119">
@@ -5017,25 +5038,25 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D119">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F119">
         <v>19434.0</v>
       </c>
       <c s="1" r="G119">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H119">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I119">
-        <v>573.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="120">
@@ -5046,13 +5067,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D120">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F120">
         <v>19434.0</v>
@@ -5075,13 +5096,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D121">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F121">
         <v>19434.0</v>
@@ -5101,19 +5122,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B122">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D122">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F122">
-        <v>19434.0</v>
+        <v>1032.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -5122,7 +5143,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I122">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="123">
@@ -5130,19 +5151,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B123">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D123">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F123">
-        <v>1032.0</v>
+        <v>10518.0</v>
       </c>
       <c s="1" r="G123">
         <v>0.0</v>
@@ -5151,7 +5172,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I123">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
@@ -5162,13 +5183,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D124">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F124">
         <v>10518.0</v>
@@ -5191,13 +5212,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D125">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F125">
         <v>10518.0</v>
@@ -5220,13 +5241,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D126">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F126">
         <v>10518.0</v>
@@ -5246,28 +5267,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B127">
-        <v>232450.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D127">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F127">
-        <v>10518.0</v>
+        <v>56625.0</v>
       </c>
       <c s="1" r="G127">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H127">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c s="1" r="I127">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="128">
@@ -5275,28 +5296,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D128">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F128">
-        <v>56625.0</v>
+        <v>4831.0</v>
       </c>
       <c s="1" r="G128">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H128">
-        <v>29.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="I128">
-        <v>43.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="129">
@@ -5304,28 +5325,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B129">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F129">
-        <v>4831.0</v>
+        <v>7005.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
       </c>
       <c s="1" r="H129">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I129">
-        <v>141.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130">
@@ -5336,13 +5357,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D130">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F130">
         <v>7005.0</v>
@@ -5365,13 +5386,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D131">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F131">
         <v>7005.0</v>
@@ -5391,28 +5412,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B132">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D132">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F132">
-        <v>7005.0</v>
+        <v>2643.0</v>
       </c>
       <c s="1" r="G132">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H132">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="I132">
-        <v>0.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="133">
@@ -5420,28 +5441,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F133">
-        <v>2643.0</v>
+        <v>227.0</v>
       </c>
       <c s="1" r="G133">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H133">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I133">
-        <v>143.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
@@ -5449,19 +5470,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B134">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F134">
-        <v>227.0</v>
+        <v>1849.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
@@ -5470,7 +5491,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I134">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="135">
@@ -5478,28 +5499,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B135">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D135">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F135">
-        <v>1849.0</v>
+        <v>3572.0</v>
       </c>
       <c s="1" r="G135">
         <v>0.0</v>
       </c>
       <c s="1" r="H135">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I135">
-        <v>15.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="136">
@@ -5507,28 +5528,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B136">
-        <v>232706.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D136">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F136">
-        <v>3572.0</v>
+        <v>954.0</v>
       </c>
       <c s="1" r="G136">
         <v>0.0</v>
       </c>
       <c s="1" r="H136">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I136">
-        <v>140.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
@@ -5539,13 +5560,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D137">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F137">
         <v>954.0</v>
@@ -5568,13 +5589,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D138">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F138">
         <v>954.0</v>
@@ -5594,19 +5615,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B139">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D139">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F139">
-        <v>954.0</v>
+        <v>464.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -5623,19 +5644,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B140">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F140">
-        <v>464.0</v>
+        <v>3404.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -5652,19 +5673,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B141">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F141">
-        <v>3404.0</v>
+        <v>5178.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -5681,28 +5702,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B142">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F142">
-        <v>5178.0</v>
+        <v>6964.0</v>
       </c>
       <c s="1" r="G142">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="H142">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
       <c s="1" r="I142">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="143">
@@ -5710,28 +5731,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B143">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F143">
-        <v>6964.0</v>
+        <v>48996.0</v>
       </c>
       <c s="1" r="G143">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H143">
-        <v>58.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I143">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
@@ -5742,13 +5763,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D144">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F144">
         <v>48996.0</v>
@@ -5771,13 +5792,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D145">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F145">
         <v>48996.0</v>
@@ -5800,13 +5821,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D146">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F146">
         <v>48996.0</v>
@@ -5829,13 +5850,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D147">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F147">
         <v>48996.0</v>
@@ -5858,13 +5879,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D148">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F148">
         <v>48996.0</v>
@@ -5884,28 +5905,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B149">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D149">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F149">
-        <v>48996.0</v>
+        <v>24466.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
       </c>
       <c s="1" r="H149">
-        <v>0.0</v>
+        <v>115.0</v>
       </c>
       <c s="1" r="I149">
-        <v>0.0</v>
+        <v>333.0</v>
       </c>
     </row>
     <row r="150">
@@ -5913,28 +5934,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B150">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F150">
-        <v>24466.0</v>
+        <v>3289.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
       </c>
       <c s="1" r="H150">
-        <v>115.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I150">
-        <v>333.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
@@ -5942,19 +5963,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B151">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F151">
-        <v>3289.0</v>
+        <v>1656.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -5974,13 +5995,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D152">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F152">
         <v>1656.0</v>
@@ -6000,19 +6021,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B153">
-        <v>233037.0</v>
+        <v>449995.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D153">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F153">
-        <v>1656.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -6029,19 +6050,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B154">
-        <v>449995.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F154">
-        <v>245.0</v>
+        <v>5551.0</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -6058,28 +6079,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B155">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F155">
-        <v>5551.0</v>
+        <v>9007.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
       </c>
       <c s="1" r="H155">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c s="1" r="I155">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="156">
@@ -6087,28 +6108,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F156">
-        <v>9007.0</v>
+        <v>524.0</v>
       </c>
       <c s="1" r="G156">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H156">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I156">
-        <v>85.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="157">
@@ -6116,28 +6137,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B157">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F157">
-        <v>524.0</v>
+        <v>1222.0</v>
       </c>
       <c s="1" r="G157">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H157">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I157">
-        <v>62.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="158">
@@ -6145,28 +6166,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B158">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F158">
-        <v>1222.0</v>
+        <v>3757.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
       </c>
       <c s="1" r="H158">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I158">
-        <v>85.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="159">
@@ -6177,13 +6198,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D159">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F159">
         <v>3757.0</v>
@@ -6203,28 +6224,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B160">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D160">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E160">
+        <v>326</v>
+      </c>
+      <c s="1" r="F160">
+        <v>5217.0</v>
+      </c>
+      <c s="1" r="G160">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H160">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="I160">
         <v>2.0</v>
-      </c>
-      <c t="s" s="1" r="E160">
-        <v>325</v>
-      </c>
-      <c s="1" r="F160">
-        <v>3757.0</v>
-      </c>
-      <c s="1" r="G160">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H160">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I160">
-        <v>0.0</v>
       </c>
     </row>
     <row r="161">
@@ -6232,28 +6253,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B161">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F161">
-        <v>5217.0</v>
+        <v>1587.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
       </c>
       <c s="1" r="H161">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I161">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="162">
@@ -6261,28 +6282,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B162">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F162">
-        <v>1587.0</v>
+        <v>559.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
       </c>
       <c s="1" r="H162">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I162">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
@@ -6290,19 +6311,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B163">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F163">
-        <v>559.0</v>
+        <v>308.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -6319,19 +6340,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B164">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F164">
-        <v>308.0</v>
+        <v>2104.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -6340,7 +6361,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I164">
-        <v>0.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="165">
@@ -6348,19 +6369,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B165">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F165">
-        <v>2104.0</v>
+        <v>249.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -6369,7 +6390,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I165">
-        <v>205.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="166">
@@ -6377,25 +6398,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B166">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F166">
-        <v>249.0</v>
+        <v>566.0</v>
       </c>
       <c s="1" r="G166">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H166">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I166">
         <v>0.0</v>
@@ -6406,25 +6427,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B167">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F167">
-        <v>566.0</v>
+        <v>744.0</v>
       </c>
       <c s="1" r="G167">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H167">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I167">
         <v>0.0</v>
@@ -6435,19 +6456,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B168">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F168">
-        <v>744.0</v>
+        <v>360.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -6464,28 +6485,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B169">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F169">
-        <v>360.0</v>
+        <v>3679.0</v>
       </c>
       <c s="1" r="G169">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="H169">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c s="1" r="I169">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="170">
@@ -6493,28 +6514,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B170">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F170">
-        <v>3679.0</v>
+        <v>341.0</v>
       </c>
       <c s="1" r="G170">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H170">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I170">
-        <v>56.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="171">
@@ -6522,16 +6543,16 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B171">
-        <v>261931.0</v>
+        <v>459259.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F171">
         <v>341.0</v>
@@ -6551,19 +6572,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B172">
-        <v>459259.0</v>
+        <v>451608.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F172">
-        <v>341.0</v>
+        <v>98.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -6580,28 +6601,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B173">
-        <v>451608.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F173">
-        <v>98.0</v>
+        <v>777.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
       </c>
       <c s="1" r="H173">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I173">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="174">
@@ -6609,28 +6630,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F174">
-        <v>777.0</v>
+        <v>131.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
       </c>
       <c s="1" r="H174">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I174">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
@@ -6638,19 +6659,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B175">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F175">
-        <v>131.0</v>
+        <v>6353.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -6667,19 +6688,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B176">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F176">
-        <v>6353.0</v>
+        <v>3755.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -6696,19 +6717,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B177">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D177">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F177">
-        <v>3755.0</v>
+        <v>69.0</v>
       </c>
       <c s="1" r="G177">
         <v>0.0</v>
@@ -6725,19 +6746,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F178">
-        <v>69.0</v>
+        <v>40.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -6754,19 +6775,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B179">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F179">
-        <v>40.0</v>
+        <v>1385.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
@@ -6783,19 +6804,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B180">
-        <v>438498.0</v>
+        <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F180">
-        <v>1385.0</v>
+        <v>12918.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
@@ -6815,13 +6836,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D181">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F181">
         <v>12918.0</v>
@@ -6844,13 +6865,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D182">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F182">
         <v>12918.0</v>
@@ -6873,13 +6894,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D183">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F183">
         <v>12918.0</v>
@@ -6902,13 +6923,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D184">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F184">
         <v>12918.0</v>
@@ -6931,13 +6952,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D185">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F185">
         <v>12918.0</v>
@@ -6960,13 +6981,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D186">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F186">
         <v>12918.0</v>
@@ -6989,13 +7010,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D187">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F187">
         <v>12918.0</v>
@@ -7018,13 +7039,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D188">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F188">
         <v>12918.0</v>
@@ -7047,13 +7068,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D189">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F189">
         <v>12918.0</v>
@@ -7076,13 +7097,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D190">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F190">
         <v>12918.0</v>
@@ -7102,19 +7123,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B191">
-        <v>233684.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D191">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F191">
-        <v>12918.0</v>
+        <v>65.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -7131,19 +7152,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B192">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D192">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F192">
-        <v>65.0</v>
+        <v>16.0</v>
       </c>
       <c s="1" r="G192">
         <v>0.0</v>
@@ -7160,28 +7181,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B193">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F193">
-        <v>16.0</v>
+        <v>760.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
       </c>
       <c s="1" r="H193">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I193">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="194">
@@ -7189,28 +7210,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B194">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F194">
-        <v>760.0</v>
+        <v>44.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
       </c>
       <c s="1" r="H194">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I194">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
@@ -7218,19 +7239,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B195">
-        <v>233286.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F195">
-        <v>44.0</v>
+        <v>2251.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -7247,19 +7268,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B196">
-        <v>440341.0</v>
+        <v>456010.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F196">
-        <v>2251.0</v>
+        <v>161.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
@@ -7276,25 +7297,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B197">
-        <v>456010.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D197">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F197">
-        <v>161.0</v>
+        <v>1990.0</v>
       </c>
       <c s="1" r="G197">
         <v>0.0</v>
       </c>
       <c s="1" r="H197">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="I197">
         <v>0.0</v>
@@ -7305,25 +7326,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B198">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D198">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F198">
-        <v>1990.0</v>
+        <v>11086.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
       </c>
       <c s="1" r="H198">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I198">
         <v>0.0</v>
@@ -7334,19 +7355,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B199">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F199">
-        <v>11086.0</v>
+        <v>31308.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -7366,13 +7387,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D200">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F200">
         <v>31308.0</v>
@@ -7395,13 +7416,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D201">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F201">
         <v>31308.0</v>
@@ -7424,13 +7445,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D202">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F202">
         <v>31308.0</v>
@@ -7453,13 +7474,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D203">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F203">
         <v>31308.0</v>
@@ -7482,13 +7503,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D204">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F204">
         <v>31308.0</v>
@@ -7511,13 +7532,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D205">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F205">
         <v>31308.0</v>
@@ -7537,19 +7558,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B206">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D206">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F206">
-        <v>31308.0</v>
+        <v>233.0</v>
       </c>
       <c s="1" r="G206">
         <v>0.0</v>
@@ -7566,19 +7587,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B207">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D207">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F207">
-        <v>233.0</v>
+        <v>273.0</v>
       </c>
       <c s="1" r="G207">
         <v>0.0</v>
@@ -7598,13 +7619,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D208">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F208">
         <v>273.0</v>
@@ -7624,28 +7645,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B209">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D209">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F209">
-        <v>273.0</v>
+        <v>5203.0</v>
       </c>
       <c s="1" r="G209">
         <v>0.0</v>
       </c>
       <c s="1" r="H209">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="I209">
-        <v>0.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="210">
@@ -7656,13 +7677,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D210">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F210">
         <v>5203.0</v>
@@ -7671,10 +7692,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H210">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I210">
-        <v>160.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
@@ -7682,19 +7703,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B211">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D211">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F211">
-        <v>5203.0</v>
+        <v>692.0</v>
       </c>
       <c s="1" r="G211">
         <v>0.0</v>
@@ -7711,19 +7732,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B212">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D212">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F212">
-        <v>692.0</v>
+        <v>480.0</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -7740,28 +7761,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B213">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F213">
-        <v>480.0</v>
+        <v>4405.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
       </c>
       <c s="1" r="H213">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="I213">
-        <v>0.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="214">
@@ -7769,28 +7790,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B214">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F214">
-        <v>4405.0</v>
+        <v>40.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
       </c>
       <c s="1" r="H214">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I214">
-        <v>219.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -7798,28 +7819,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B215">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F215">
-        <v>40.0</v>
+        <v>24391.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
       </c>
       <c s="1" r="H215">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c s="1" r="I215">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="216">
@@ -7830,13 +7851,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D216">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F216">
         <v>24391.0</v>
@@ -7845,10 +7866,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H216">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I216">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
@@ -7859,13 +7880,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D217">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F217">
         <v>24391.0</v>
@@ -7874,7 +7895,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H217">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I217">
         <v>0.0</v>
@@ -7888,13 +7909,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D218">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F218">
         <v>24391.0</v>
@@ -7903,7 +7924,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H218">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I218">
         <v>0.0</v>
@@ -7917,13 +7938,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D219">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F219">
         <v>24391.0</v>
@@ -7946,13 +7967,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D220">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F220">
         <v>24391.0</v>
@@ -7972,19 +7993,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B221">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D221">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F221">
-        <v>24391.0</v>
+        <v>57.0</v>
       </c>
       <c s="1" r="G221">
         <v>0.0</v>
@@ -8001,28 +8022,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B222">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D222">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F222">
+        <v>32027.0</v>
+      </c>
+      <c s="1" r="G222">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H222">
         <v>57.0</v>
       </c>
-      <c s="1" r="G222">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H222">
-        <v>0.0</v>
-      </c>
       <c s="1" r="I222">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="223">
@@ -8033,13 +8054,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D223">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F223">
         <v>32027.0</v>
@@ -8048,10 +8069,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H223">
-        <v>57.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="I223">
-        <v>55.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="224">
@@ -8059,28 +8080,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B224">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D224">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F224">
-        <v>32027.0</v>
+        <v>2948.0</v>
       </c>
       <c s="1" r="G224">
         <v>0.0</v>
       </c>
       <c s="1" r="H224">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I224">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
@@ -8088,19 +8109,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B225">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D225">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F225">
-        <v>2948.0</v>
+        <v>586.0</v>
       </c>
       <c s="1" r="G225">
         <v>0.0</v>
@@ -8109,7 +8130,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I225">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="226">
@@ -8117,28 +8138,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B226">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C226">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D226">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E226">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F226">
-        <v>586.0</v>
+        <v>1569.0</v>
       </c>
       <c s="1" r="G226">
         <v>0.0</v>
       </c>
       <c s="1" r="H226">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I226">
-        <v>2.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="227">
@@ -8146,28 +8167,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B227">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C227">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D227">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E227">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F227">
-        <v>1569.0</v>
+        <v>31006.0</v>
       </c>
       <c s="1" r="G227">
         <v>0.0</v>
       </c>
       <c s="1" r="H227">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="I227">
-        <v>36.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="228">
@@ -8178,13 +8199,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C228">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D228">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E228">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F228">
         <v>31006.0</v>
@@ -8193,10 +8214,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H228">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I228">
-        <v>415.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="229">
@@ -8207,13 +8228,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C229">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D229">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E229">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F229">
         <v>31006.0</v>
@@ -8236,13 +8257,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C230">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D230">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E230">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F230">
         <v>31006.0</v>
@@ -8265,13 +8286,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C231">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c s="1" r="D231">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E231">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c s="1" r="F231">
         <v>31006.0</v>
@@ -8294,13 +8315,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C232">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c s="1" r="D232">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E232">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c s="1" r="F232">
         <v>31006.0</v>
@@ -8323,13 +8344,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C233">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c s="1" r="D233">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E233">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c s="1" r="F233">
         <v>31006.0</v>
@@ -8352,13 +8373,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C234">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c s="1" r="D234">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E234">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c s="1" r="F234">
         <v>31006.0</v>
@@ -8381,13 +8402,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C235">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c s="1" r="D235">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E235">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c s="1" r="F235">
         <v>31006.0</v>
@@ -8410,13 +8431,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C236">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c s="1" r="D236">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E236">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c s="1" r="F236">
         <v>31006.0</v>
@@ -8439,13 +8460,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C237">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c s="1" r="D237">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E237">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c s="1" r="F237">
         <v>31006.0</v>
@@ -8465,19 +8486,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B238">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C238">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c s="1" r="D238">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E238">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c s="1" r="F238">
-        <v>31006.0</v>
+        <v>140.0</v>
       </c>
       <c s="1" r="G238">
         <v>0.0</v>
@@ -8494,19 +8515,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B239">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C239">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c s="1" r="D239">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E239">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c s="1" r="F239">
-        <v>140.0</v>
+        <v>72.0</v>
       </c>
       <c s="1" r="G239">
         <v>0.0</v>
@@ -8523,28 +8544,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B240">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C240">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c s="1" r="D240">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E240">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c s="1" r="F240">
-        <v>72.0</v>
+        <v>5634.0</v>
       </c>
       <c s="1" r="G240">
         <v>0.0</v>
       </c>
       <c s="1" r="H240">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I240">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="241">
@@ -8552,28 +8573,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B241">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C241">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c s="1" r="D241">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E241">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c s="1" r="F241">
-        <v>5634.0</v>
+        <v>1667.0</v>
       </c>
       <c s="1" r="G241">
         <v>0.0</v>
       </c>
       <c s="1" r="H241">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="I241">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="242">
@@ -8581,28 +8602,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B242">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C242">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c s="1" r="D242">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E242">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c s="1" r="F242">
-        <v>1667.0</v>
+        <v>555.0</v>
       </c>
       <c s="1" r="G242">
         <v>0.0</v>
       </c>
       <c s="1" r="H242">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I242">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="243">
@@ -8610,28 +8631,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B243">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C243">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c s="1" r="D243">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E243">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c s="1" r="F243">
-        <v>555.0</v>
+        <v>1279.0</v>
       </c>
       <c s="1" r="G243">
         <v>0.0</v>
       </c>
       <c s="1" r="H243">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="I243">
-        <v>0.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="244">
@@ -8639,28 +8660,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B244">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C244">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c s="1" r="D244">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E244">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c s="1" r="F244">
-        <v>1279.0</v>
+        <v>8778.0</v>
       </c>
       <c s="1" r="G244">
         <v>0.0</v>
       </c>
       <c s="1" r="H244">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I244">
-        <v>203.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
@@ -8668,25 +8689,25 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B245">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C245">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c s="1" r="D245">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E245">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c s="1" r="F245">
-        <v>8778.0</v>
+        <v>135.0</v>
       </c>
       <c s="1" r="G245">
         <v>0.0</v>
       </c>
       <c s="1" r="H245">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I245">
         <v>0.0</v>
@@ -8697,19 +8718,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B246">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C246">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c s="1" r="D246">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E246">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c s="1" r="F246">
-        <v>135.0</v>
+        <v>45.0</v>
       </c>
       <c s="1" r="G246">
         <v>0.0</v>
@@ -8726,28 +8747,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B247">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C247">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c s="1" r="D247">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E247">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c s="1" r="F247">
-        <v>45.0</v>
+        <v>2173.0</v>
       </c>
       <c s="1" r="G247">
         <v>0.0</v>
       </c>
       <c s="1" r="H247">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c s="1" r="I247">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="248">
@@ -8755,28 +8776,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B248">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C248">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c s="1" r="D248">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E248">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c s="1" r="F248">
-        <v>2173.0</v>
+        <v>94.0</v>
       </c>
       <c s="1" r="G248">
         <v>0.0</v>
       </c>
       <c s="1" r="H248">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I248">
-        <v>91.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="249">
@@ -8784,19 +8805,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B249">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C249">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c s="1" r="D249">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E249">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c s="1" r="F249">
-        <v>94.0</v>
+        <v>523.0</v>
       </c>
       <c s="1" r="G249">
         <v>0.0</v>
@@ -8813,19 +8834,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B250">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C250">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c s="1" r="D250">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E250">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c s="1" r="F250">
-        <v>523.0</v>
+        <v>520.0</v>
       </c>
       <c s="1" r="G250">
         <v>0.0</v>
@@ -8842,28 +8863,28 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B251">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C251">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c s="1" r="D251">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E251">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c s="1" r="F251">
-        <v>520.0</v>
+        <v>226.0</v>
       </c>
       <c s="1" r="G251">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H251">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="I251">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="252">
@@ -8871,56 +8892,27 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B252">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C252">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c s="1" r="D252">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E252">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c s="1" r="F252">
-        <v>226.0</v>
+        <v>4068.0</v>
       </c>
       <c s="1" r="G252">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H252">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I252">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c s="1" r="A253">
-        <v>2010.0</v>
-      </c>
-      <c s="1" r="B253">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C253">
-        <v>510</v>
-      </c>
-      <c s="1" r="D253">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E253">
-        <v>511</v>
-      </c>
-      <c s="1" r="F253">
-        <v>4068.0</v>
-      </c>
-      <c s="1" r="G253">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H253">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I253">
         <v>0.0</v>
       </c>
     </row>
